--- a/projets-m2.xlsx
+++ b/projets-m2.xlsx
@@ -406,7 +406,7 @@
     <t>Python ou R</t>
   </si>
   <si>
-    <t>gehc-optim</t>
+    <t>gehc-activity-profiling</t>
   </si>
   <si>
     <t>PANGON</t>
@@ -579,7 +579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -590,13 +590,22 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FFF2F2F2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -605,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -617,6 +626,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1468,7 +1480,7 @@
       <c r="Q11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="5" t="s">
         <v>124</v>
       </c>
       <c r="S11" s="3" t="s">
